--- a/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
+++ b/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
@@ -715,13 +715,13 @@
     <t>Name: uganda-secondary-sit-write-gov</t>
   </si>
   <si>
-    <t>Description: Secondary Pupil With Adequate Sitting And Writing Space - Government Schools</t>
+    <t>Description: Secondary pupils with adequate sitting and writing space (government schools)</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Education Statistics Abstracts 2010-2013 - Ministry of Education</t>
+    <t>Source: Education statistics abstracts 2010â€“2013 â€“ Ministry of Education</t>
   </si>
   <si>
     <t>Source-link: http://www.education.go.ug/data/smenu/4/Statistics%20Abstract%20.html</t>

--- a/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
+++ b/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
@@ -715,10 +715,10 @@
     <t>Name: uganda-secondary-sit-write-gov</t>
   </si>
   <si>
-    <t>Description: Secondary pupils with adequate sitting and writing space (government schools)</t>
-  </si>
-  <si>
-    <t>Units of measure: unit</t>
+    <t>Description: Secondary pupils with adequate sitting and writing space - government schools</t>
+  </si>
+  <si>
+    <t>Units of measure: %</t>
   </si>
   <si>
     <t>Source: Education statistics abstracts 2010â€“2013 â€“ Ministry of Education</t>

--- a/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
+++ b/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
+++ b/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -777,52 +1113,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1193,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2010</v>
       </c>
@@ -867,7 +1205,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="n">
         <v>2011</v>
       </c>
@@ -877,7 +1217,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="n">
         <v>2012</v>
       </c>
@@ -887,7 +1229,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
         <v>2013</v>
       </c>
@@ -897,9 +1241,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="n">
         <v>2010</v>
       </c>
@@ -907,9 +1253,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="n">
         <v>2011</v>
       </c>
@@ -917,9 +1265,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" t="n">
         <v>2012</v>
       </c>
@@ -927,9 +1277,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" t="n">
         <v>2013</v>
       </c>
@@ -939,9 +1291,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="n">
         <v>2010</v>
       </c>
@@ -949,9 +1303,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="n">
         <v>2011</v>
       </c>
@@ -959,9 +1315,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="n">
         <v>2012</v>
       </c>
@@ -969,9 +1327,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13"/>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="n">
         <v>2013</v>
       </c>
@@ -981,9 +1341,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14"/>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" t="n">
         <v>2010</v>
       </c>
@@ -991,9 +1353,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" t="n">
         <v>2011</v>
       </c>
@@ -1001,9 +1365,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16"/>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" t="n">
         <v>2012</v>
       </c>
@@ -1011,9 +1377,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17"/>
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
       <c r="C17" t="n">
         <v>2013</v>
       </c>
@@ -1023,9 +1391,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18"/>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" t="n">
         <v>2010</v>
       </c>
@@ -1033,9 +1403,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19"/>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" t="n">
         <v>2011</v>
       </c>
@@ -1043,9 +1415,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="n">
         <v>2012</v>
       </c>
@@ -1053,9 +1427,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21"/>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="n">
         <v>2013</v>
       </c>
@@ -1065,9 +1441,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="n">
         <v>2010</v>
       </c>
@@ -1075,9 +1453,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23"/>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" t="n">
         <v>2011</v>
       </c>
@@ -1085,9 +1465,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24"/>
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" t="n">
         <v>2012</v>
       </c>
@@ -1095,9 +1477,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25"/>
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" t="n">
         <v>2013</v>
       </c>
@@ -1107,9 +1491,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26"/>
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" t="n">
         <v>2010</v>
       </c>
@@ -1117,9 +1503,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27"/>
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" t="n">
         <v>2011</v>
       </c>
@@ -1127,9 +1515,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28"/>
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" t="n">
         <v>2012</v>
       </c>
@@ -1137,9 +1527,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29"/>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" t="n">
         <v>2013</v>
       </c>
@@ -1149,9 +1541,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30"/>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" t="n">
         <v>2010</v>
       </c>
@@ -1159,9 +1553,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31"/>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" t="n">
         <v>2011</v>
       </c>
@@ -1169,9 +1565,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32"/>
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" t="n">
         <v>2012</v>
       </c>
@@ -1179,9 +1577,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33"/>
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" t="n">
         <v>2013</v>
       </c>
@@ -1191,9 +1591,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" t="n">
         <v>2010</v>
       </c>
@@ -1201,9 +1603,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35"/>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" t="n">
         <v>2011</v>
       </c>
@@ -1211,9 +1615,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36"/>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" t="n">
         <v>2012</v>
       </c>
@@ -1221,9 +1627,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37"/>
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" t="n">
         <v>2013</v>
       </c>
@@ -1233,9 +1641,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38"/>
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
       <c r="C38" t="n">
         <v>2010</v>
       </c>
@@ -1243,9 +1653,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39"/>
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
       <c r="C39" t="n">
         <v>2011</v>
       </c>
@@ -1253,9 +1665,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40"/>
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" t="n">
         <v>2012</v>
       </c>
@@ -1263,9 +1677,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41"/>
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
       <c r="C41" t="n">
         <v>2013</v>
       </c>
@@ -1275,9 +1691,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42"/>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" t="n">
         <v>2010</v>
       </c>
@@ -1285,9 +1703,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43"/>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" t="n">
         <v>2011</v>
       </c>
@@ -1295,9 +1715,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44"/>
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
       <c r="C44" t="n">
         <v>2012</v>
       </c>
@@ -1305,9 +1727,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45"/>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" t="n">
         <v>2013</v>
       </c>
@@ -1317,9 +1741,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46"/>
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" t="n">
         <v>2010</v>
       </c>
@@ -1327,9 +1753,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47"/>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
       <c r="C47" t="n">
         <v>2011</v>
       </c>
@@ -1337,9 +1765,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48"/>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" t="n">
         <v>2012</v>
       </c>
@@ -1347,9 +1777,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49"/>
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
       <c r="C49" t="n">
         <v>2013</v>
       </c>
@@ -1359,9 +1791,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50"/>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
       <c r="C50" t="n">
         <v>2010</v>
       </c>
@@ -1369,9 +1803,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51"/>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
       <c r="C51" t="n">
         <v>2011</v>
       </c>
@@ -1379,9 +1815,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52"/>
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" t="n">
         <v>2012</v>
       </c>
@@ -1389,9 +1827,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53"/>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" t="n">
         <v>2013</v>
       </c>
@@ -1401,9 +1841,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54"/>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" t="n">
         <v>2010</v>
       </c>
@@ -1411,9 +1853,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55"/>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" t="n">
         <v>2011</v>
       </c>
@@ -1421,9 +1865,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56"/>
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
       <c r="C56" t="n">
         <v>2012</v>
       </c>
@@ -1431,9 +1877,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57"/>
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
       <c r="C57" t="n">
         <v>2013</v>
       </c>
@@ -1443,9 +1891,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58"/>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
       <c r="C58" t="n">
         <v>2010</v>
       </c>
@@ -1453,9 +1903,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59"/>
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" t="n">
         <v>2011</v>
       </c>
@@ -1463,9 +1915,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60"/>
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
       <c r="C60" t="n">
         <v>2012</v>
       </c>
@@ -1473,9 +1927,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61"/>
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
       <c r="C61" t="n">
         <v>2013</v>
       </c>
@@ -1485,9 +1941,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62"/>
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
       <c r="C62" t="n">
         <v>2010</v>
       </c>
@@ -1495,9 +1953,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63"/>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
       <c r="C63" t="n">
         <v>2011</v>
       </c>
@@ -1505,9 +1965,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64"/>
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
       <c r="C64" t="n">
         <v>2012</v>
       </c>
@@ -1515,9 +1977,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65"/>
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
       <c r="C65" t="n">
         <v>2013</v>
       </c>
@@ -1527,9 +1991,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66"/>
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
       <c r="C66" t="n">
         <v>2010</v>
       </c>
@@ -1537,9 +2003,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67"/>
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" t="n">
         <v>2011</v>
       </c>
@@ -1547,9 +2015,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68"/>
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
       <c r="C68" t="n">
         <v>2012</v>
       </c>
@@ -1557,9 +2027,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69"/>
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
       <c r="C69" t="n">
         <v>2013</v>
       </c>
@@ -1569,9 +2041,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70"/>
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
       <c r="C70" t="n">
         <v>2010</v>
       </c>
@@ -1579,9 +2053,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71"/>
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
       <c r="C71" t="n">
         <v>2011</v>
       </c>
@@ -1589,9 +2065,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72"/>
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
       <c r="C72" t="n">
         <v>2012</v>
       </c>
@@ -1599,9 +2077,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73"/>
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
       <c r="C73" t="n">
         <v>2013</v>
       </c>
@@ -1611,9 +2091,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74"/>
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
       <c r="C74" t="n">
         <v>2010</v>
       </c>
@@ -1621,9 +2103,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75"/>
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" t="n">
         <v>2011</v>
       </c>
@@ -1631,9 +2115,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76"/>
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" t="n">
         <v>2012</v>
       </c>
@@ -1641,9 +2127,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77"/>
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
       <c r="C77" t="n">
         <v>2013</v>
       </c>
@@ -1653,9 +2141,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78"/>
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
       <c r="C78" t="n">
         <v>2010</v>
       </c>
@@ -1663,9 +2153,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79"/>
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
       <c r="C79" t="n">
         <v>2011</v>
       </c>
@@ -1673,9 +2165,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80"/>
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
       <c r="C80" t="n">
         <v>2012</v>
       </c>
@@ -1683,9 +2177,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81"/>
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
       <c r="C81" t="n">
         <v>2013</v>
       </c>
@@ -1695,9 +2191,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82"/>
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" t="n">
         <v>2010</v>
       </c>
@@ -1705,9 +2203,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83"/>
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" t="n">
         <v>2011</v>
       </c>
@@ -1715,9 +2215,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84"/>
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" t="n">
         <v>2012</v>
       </c>
@@ -1725,9 +2227,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85"/>
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" t="n">
         <v>2013</v>
       </c>
@@ -1737,9 +2241,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86"/>
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" t="n">
         <v>2010</v>
       </c>
@@ -1747,9 +2253,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87"/>
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
       <c r="C87" t="n">
         <v>2011</v>
       </c>
@@ -1757,9 +2265,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88"/>
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
       <c r="C88" t="n">
         <v>2012</v>
       </c>
@@ -1767,9 +2277,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89"/>
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
       <c r="C89" t="n">
         <v>2013</v>
       </c>
@@ -1779,9 +2291,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90"/>
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
       <c r="C90" t="n">
         <v>2010</v>
       </c>
@@ -1789,9 +2303,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91"/>
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" t="n">
         <v>2011</v>
       </c>
@@ -1799,9 +2315,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92"/>
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
       <c r="C92" t="n">
         <v>2012</v>
       </c>
@@ -1809,9 +2327,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93"/>
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" t="n">
         <v>2013</v>
       </c>
@@ -1821,9 +2341,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94"/>
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
       <c r="C94" t="n">
         <v>2010</v>
       </c>
@@ -1831,9 +2353,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95"/>
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" t="n">
         <v>2011</v>
       </c>
@@ -1841,9 +2365,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96"/>
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" t="n">
         <v>2012</v>
       </c>
@@ -1851,9 +2377,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97"/>
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
       <c r="C97" t="n">
         <v>2013</v>
       </c>
@@ -1863,9 +2391,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98"/>
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
       <c r="C98" t="n">
         <v>2010</v>
       </c>
@@ -1873,9 +2403,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99"/>
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" t="n">
         <v>2011</v>
       </c>
@@ -1883,9 +2415,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100"/>
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
       <c r="C100" t="n">
         <v>2012</v>
       </c>
@@ -1893,9 +2427,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101"/>
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
       <c r="C101" t="n">
         <v>2013</v>
       </c>
@@ -1905,9 +2441,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102"/>
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
       <c r="C102" t="n">
         <v>2010</v>
       </c>
@@ -1915,9 +2453,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103"/>
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
       <c r="C103" t="n">
         <v>2011</v>
       </c>
@@ -1925,9 +2465,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104"/>
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
       <c r="C104" t="n">
         <v>2012</v>
       </c>
@@ -1935,9 +2477,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105"/>
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" t="n">
         <v>2013</v>
       </c>
@@ -1947,9 +2491,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106"/>
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
       <c r="C106" t="n">
         <v>2010</v>
       </c>
@@ -1957,9 +2503,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107"/>
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
       <c r="C107" t="n">
         <v>2011</v>
       </c>
@@ -1967,9 +2515,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108"/>
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
       <c r="C108" t="n">
         <v>2012</v>
       </c>
@@ -1977,9 +2527,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109"/>
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
       <c r="C109" t="n">
         <v>2013</v>
       </c>
@@ -1989,9 +2541,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110"/>
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
       <c r="C110" t="n">
         <v>2010</v>
       </c>
@@ -1999,9 +2553,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111"/>
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
       <c r="C111" t="n">
         <v>2011</v>
       </c>
@@ -2009,9 +2565,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112"/>
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
       <c r="C112" t="n">
         <v>2012</v>
       </c>
@@ -2019,9 +2577,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113"/>
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
       <c r="C113" t="n">
         <v>2013</v>
       </c>
@@ -2031,9 +2591,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114"/>
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
       <c r="C114" t="n">
         <v>2010</v>
       </c>
@@ -2041,9 +2603,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115"/>
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
       <c r="C115" t="n">
         <v>2011</v>
       </c>
@@ -2051,9 +2615,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116"/>
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
       <c r="C116" t="n">
         <v>2012</v>
       </c>
@@ -2061,9 +2627,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117"/>
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
       <c r="C117" t="n">
         <v>2013</v>
       </c>
@@ -2073,9 +2641,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118"/>
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" t="n">
         <v>2010</v>
       </c>
@@ -2083,9 +2653,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119"/>
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
       <c r="C119" t="n">
         <v>2011</v>
       </c>
@@ -2093,9 +2665,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120"/>
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
       <c r="C120" t="n">
         <v>2012</v>
       </c>
@@ -2103,9 +2677,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121"/>
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
       <c r="C121" t="n">
         <v>2013</v>
       </c>
@@ -2115,9 +2691,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122"/>
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
       <c r="C122" t="n">
         <v>2010</v>
       </c>
@@ -2125,9 +2703,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123"/>
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
       <c r="C123" t="n">
         <v>2011</v>
       </c>
@@ -2135,9 +2715,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124"/>
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
       <c r="C124" t="n">
         <v>2012</v>
       </c>
@@ -2145,9 +2727,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125"/>
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
       <c r="C125" t="n">
         <v>2013</v>
       </c>
@@ -2157,9 +2741,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126"/>
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
       <c r="C126" t="n">
         <v>2010</v>
       </c>
@@ -2167,9 +2753,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127"/>
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
       <c r="C127" t="n">
         <v>2011</v>
       </c>
@@ -2177,9 +2765,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128"/>
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
       <c r="C128" t="n">
         <v>2012</v>
       </c>
@@ -2187,9 +2777,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129"/>
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
       <c r="C129" t="n">
         <v>2013</v>
       </c>
@@ -2199,9 +2791,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130"/>
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
       <c r="C130" t="n">
         <v>2010</v>
       </c>
@@ -2209,9 +2803,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131"/>
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
       <c r="C131" t="n">
         <v>2011</v>
       </c>
@@ -2219,9 +2815,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132"/>
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
       <c r="C132" t="n">
         <v>2012</v>
       </c>
@@ -2229,9 +2827,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133"/>
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
       <c r="C133" t="n">
         <v>2013</v>
       </c>
@@ -2241,9 +2841,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134"/>
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
       <c r="C134" t="n">
         <v>2010</v>
       </c>
@@ -2251,9 +2853,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135"/>
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
       <c r="C135" t="n">
         <v>2011</v>
       </c>
@@ -2261,9 +2865,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136"/>
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
       <c r="C136" t="n">
         <v>2012</v>
       </c>
@@ -2271,9 +2877,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137"/>
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
       <c r="C137" t="n">
         <v>2013</v>
       </c>
@@ -2283,9 +2891,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
-      </c>
-      <c r="B138"/>
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
       <c r="C138" t="n">
         <v>2010</v>
       </c>
@@ -2293,9 +2903,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139"/>
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
       <c r="C139" t="n">
         <v>2011</v>
       </c>
@@ -2303,9 +2915,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>38</v>
-      </c>
-      <c r="B140"/>
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
       <c r="C140" t="n">
         <v>2012</v>
       </c>
@@ -2313,9 +2927,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141"/>
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
       <c r="C141" t="n">
         <v>2013</v>
       </c>
@@ -2325,9 +2941,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142"/>
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
       <c r="C142" t="n">
         <v>2010</v>
       </c>
@@ -2335,9 +2953,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143"/>
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
       <c r="C143" t="n">
         <v>2011</v>
       </c>
@@ -2345,9 +2965,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144"/>
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
       <c r="C144" t="n">
         <v>2012</v>
       </c>
@@ -2355,9 +2977,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145"/>
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
       <c r="C145" t="n">
         <v>2013</v>
       </c>
@@ -2367,9 +2991,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146"/>
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
       <c r="C146" t="n">
         <v>2010</v>
       </c>
@@ -2377,9 +3003,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147"/>
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
       <c r="C147" t="n">
         <v>2011</v>
       </c>
@@ -2387,9 +3015,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148"/>
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
       <c r="C148" t="n">
         <v>2012</v>
       </c>
@@ -2397,9 +3027,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149"/>
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
       <c r="C149" t="n">
         <v>2013</v>
       </c>
@@ -2409,9 +3041,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150"/>
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
       <c r="C150" t="n">
         <v>2010</v>
       </c>
@@ -2419,9 +3053,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151"/>
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
       <c r="C151" t="n">
         <v>2011</v>
       </c>
@@ -2429,9 +3065,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152"/>
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
       <c r="C152" t="n">
         <v>2012</v>
       </c>
@@ -2439,9 +3077,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>41</v>
-      </c>
-      <c r="B153"/>
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
       <c r="C153" t="n">
         <v>2013</v>
       </c>
@@ -2451,9 +3091,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>42</v>
-      </c>
-      <c r="B154"/>
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
       <c r="C154" t="n">
         <v>2010</v>
       </c>
@@ -2461,9 +3103,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155"/>
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
       <c r="C155" t="n">
         <v>2011</v>
       </c>
@@ -2471,9 +3115,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156"/>
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
       <c r="C156" t="n">
         <v>2012</v>
       </c>
@@ -2481,9 +3127,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157"/>
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
       <c r="C157" t="n">
         <v>2013</v>
       </c>
@@ -2493,9 +3141,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158"/>
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
       <c r="C158" t="n">
         <v>2010</v>
       </c>
@@ -2503,9 +3153,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159"/>
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
       <c r="C159" t="n">
         <v>2011</v>
       </c>
@@ -2513,9 +3165,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B160"/>
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
       <c r="C160" t="n">
         <v>2012</v>
       </c>
@@ -2523,9 +3177,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161"/>
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
       <c r="C161" t="n">
         <v>2013</v>
       </c>
@@ -2535,9 +3191,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>44</v>
-      </c>
-      <c r="B162"/>
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
       <c r="C162" t="n">
         <v>2010</v>
       </c>
@@ -2545,9 +3203,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163"/>
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
       <c r="C163" t="n">
         <v>2011</v>
       </c>
@@ -2555,9 +3215,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164"/>
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
       <c r="C164" t="n">
         <v>2012</v>
       </c>
@@ -2565,9 +3227,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165"/>
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
       <c r="C165" t="n">
         <v>2013</v>
       </c>
@@ -2577,9 +3241,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166"/>
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
       <c r="C166" t="n">
         <v>2010</v>
       </c>
@@ -2587,9 +3253,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167"/>
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
       <c r="C167" t="n">
         <v>2011</v>
       </c>
@@ -2597,9 +3265,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168"/>
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
       <c r="C168" t="n">
         <v>2012</v>
       </c>
@@ -2607,9 +3277,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169"/>
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
       <c r="C169" t="n">
         <v>2013</v>
       </c>
@@ -2619,9 +3291,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170"/>
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
       <c r="C170" t="n">
         <v>2010</v>
       </c>
@@ -2629,9 +3303,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171"/>
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
       <c r="C171" t="n">
         <v>2011</v>
       </c>
@@ -2639,9 +3315,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172"/>
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
       <c r="C172" t="n">
         <v>2012</v>
       </c>
@@ -2649,9 +3327,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173"/>
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
       <c r="C173" t="n">
         <v>2013</v>
       </c>
@@ -2661,9 +3341,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174"/>
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
       <c r="C174" t="n">
         <v>2010</v>
       </c>
@@ -2671,9 +3353,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175"/>
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
       <c r="C175" t="n">
         <v>2011</v>
       </c>
@@ -2681,9 +3365,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176"/>
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
       <c r="C176" t="n">
         <v>2012</v>
       </c>
@@ -2691,9 +3377,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>47</v>
-      </c>
-      <c r="B177"/>
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
       <c r="C177" t="n">
         <v>2013</v>
       </c>
@@ -2703,9 +3391,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178"/>
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
       <c r="C178" t="n">
         <v>2010</v>
       </c>
@@ -2713,9 +3403,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179"/>
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
       <c r="C179" t="n">
         <v>2011</v>
       </c>
@@ -2723,9 +3415,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="B180"/>
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
       <c r="C180" t="n">
         <v>2012</v>
       </c>
@@ -2733,9 +3427,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181"/>
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
       <c r="C181" t="n">
         <v>2013</v>
       </c>
@@ -2745,9 +3441,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>49</v>
-      </c>
-      <c r="B182"/>
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
       <c r="C182" t="n">
         <v>2010</v>
       </c>
@@ -2755,9 +3453,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>49</v>
-      </c>
-      <c r="B183"/>
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
       <c r="C183" t="n">
         <v>2011</v>
       </c>
@@ -2765,9 +3465,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>49</v>
-      </c>
-      <c r="B184"/>
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
       <c r="C184" t="n">
         <v>2012</v>
       </c>
@@ -2775,9 +3477,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185"/>
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
       <c r="C185" t="n">
         <v>2013</v>
       </c>
@@ -2787,9 +3491,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
-      </c>
-      <c r="B186"/>
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
       <c r="C186" t="n">
         <v>2010</v>
       </c>
@@ -2797,9 +3503,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>50</v>
-      </c>
-      <c r="B187"/>
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
       <c r="C187" t="n">
         <v>2011</v>
       </c>
@@ -2807,9 +3515,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>50</v>
-      </c>
-      <c r="B188"/>
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
       <c r="C188" t="n">
         <v>2012</v>
       </c>
@@ -2817,9 +3527,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
-      </c>
-      <c r="B189"/>
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
       <c r="C189" t="n">
         <v>2013</v>
       </c>
@@ -2829,9 +3541,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>51</v>
-      </c>
-      <c r="B190"/>
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
       <c r="C190" t="n">
         <v>2010</v>
       </c>
@@ -2839,9 +3553,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
-      </c>
-      <c r="B191"/>
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
       <c r="C191" t="n">
         <v>2011</v>
       </c>
@@ -2849,9 +3565,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>51</v>
-      </c>
-      <c r="B192"/>
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
       <c r="C192" t="n">
         <v>2012</v>
       </c>
@@ -2859,9 +3577,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>51</v>
-      </c>
-      <c r="B193"/>
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
       <c r="C193" t="n">
         <v>2013</v>
       </c>
@@ -2871,9 +3591,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194"/>
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
       <c r="C194" t="n">
         <v>2010</v>
       </c>
@@ -2881,9 +3603,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195"/>
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
       <c r="C195" t="n">
         <v>2011</v>
       </c>
@@ -2891,9 +3615,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196"/>
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
       <c r="C196" t="n">
         <v>2012</v>
       </c>
@@ -2901,9 +3627,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197"/>
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
       <c r="C197" t="n">
         <v>2013</v>
       </c>
@@ -2913,9 +3641,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>53</v>
-      </c>
-      <c r="B198"/>
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
       <c r="C198" t="n">
         <v>2010</v>
       </c>
@@ -2923,9 +3653,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>53</v>
-      </c>
-      <c r="B199"/>
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
       <c r="C199" t="n">
         <v>2011</v>
       </c>
@@ -2933,9 +3665,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>53</v>
-      </c>
-      <c r="B200"/>
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
       <c r="C200" t="n">
         <v>2012</v>
       </c>
@@ -2943,9 +3677,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201"/>
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
       <c r="C201" t="n">
         <v>2013</v>
       </c>
@@ -2955,9 +3691,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>54</v>
-      </c>
-      <c r="B202"/>
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
       <c r="C202" t="n">
         <v>2010</v>
       </c>
@@ -2965,9 +3703,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203"/>
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
       <c r="C203" t="n">
         <v>2011</v>
       </c>
@@ -2975,9 +3715,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>54</v>
-      </c>
-      <c r="B204"/>
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
       <c r="C204" t="n">
         <v>2012</v>
       </c>
@@ -2985,9 +3727,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>54</v>
-      </c>
-      <c r="B205"/>
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
       <c r="C205" t="n">
         <v>2013</v>
       </c>
@@ -2997,9 +3741,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206"/>
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
       <c r="C206" t="n">
         <v>2010</v>
       </c>
@@ -3007,9 +3753,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207"/>
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
       <c r="C207" t="n">
         <v>2011</v>
       </c>
@@ -3017,9 +3765,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208"/>
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
       <c r="C208" t="n">
         <v>2012</v>
       </c>
@@ -3027,9 +3777,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>55</v>
-      </c>
-      <c r="B209"/>
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
       <c r="C209" t="n">
         <v>2013</v>
       </c>
@@ -3039,9 +3791,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210"/>
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
       <c r="C210" t="n">
         <v>2010</v>
       </c>
@@ -3049,9 +3803,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>56</v>
-      </c>
-      <c r="B211"/>
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
       <c r="C211" t="n">
         <v>2011</v>
       </c>
@@ -3059,9 +3815,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>56</v>
-      </c>
-      <c r="B212"/>
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
       <c r="C212" t="n">
         <v>2012</v>
       </c>
@@ -3069,9 +3827,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B213"/>
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
       <c r="C213" t="n">
         <v>2013</v>
       </c>
@@ -3081,9 +3841,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>57</v>
-      </c>
-      <c r="B214"/>
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
       <c r="C214" t="n">
         <v>2010</v>
       </c>
@@ -3091,9 +3853,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>57</v>
-      </c>
-      <c r="B215"/>
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
       <c r="C215" t="n">
         <v>2011</v>
       </c>
@@ -3101,9 +3865,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>57</v>
-      </c>
-      <c r="B216"/>
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
       <c r="C216" t="n">
         <v>2012</v>
       </c>
@@ -3111,9 +3877,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217"/>
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
       <c r="C217" t="n">
         <v>2013</v>
       </c>
@@ -3123,9 +3891,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>58</v>
-      </c>
-      <c r="B218"/>
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
       <c r="C218" t="n">
         <v>2010</v>
       </c>
@@ -3133,9 +3903,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>58</v>
-      </c>
-      <c r="B219"/>
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
       <c r="C219" t="n">
         <v>2011</v>
       </c>
@@ -3143,9 +3915,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>58</v>
-      </c>
-      <c r="B220"/>
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
       <c r="C220" t="n">
         <v>2012</v>
       </c>
@@ -3153,9 +3927,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>58</v>
-      </c>
-      <c r="B221"/>
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
       <c r="C221" t="n">
         <v>2013</v>
       </c>
@@ -3165,9 +3941,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222"/>
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
       <c r="C222" t="n">
         <v>2010</v>
       </c>
@@ -3175,9 +3953,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223"/>
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
       <c r="C223" t="n">
         <v>2011</v>
       </c>
@@ -3185,9 +3965,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224"/>
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
       <c r="C224" t="n">
         <v>2012</v>
       </c>
@@ -3195,9 +3977,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225"/>
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
       <c r="C225" t="n">
         <v>2013</v>
       </c>
@@ -3207,9 +3991,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226"/>
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
       <c r="C226" t="n">
         <v>2010</v>
       </c>
@@ -3217,9 +4003,11 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227"/>
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
       <c r="C227" t="n">
         <v>2011</v>
       </c>
@@ -3227,9 +4015,11 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228"/>
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
       <c r="C228" t="n">
         <v>2012</v>
       </c>
@@ -3237,9 +4027,11 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>60</v>
-      </c>
-      <c r="B229"/>
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
       <c r="C229" t="n">
         <v>2013</v>
       </c>
@@ -3249,9 +4041,11 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230"/>
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
       <c r="C230" t="n">
         <v>2010</v>
       </c>
@@ -3259,9 +4053,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>61</v>
-      </c>
-      <c r="B231"/>
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
       <c r="C231" t="n">
         <v>2011</v>
       </c>
@@ -3269,9 +4065,11 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>61</v>
-      </c>
-      <c r="B232"/>
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
       <c r="C232" t="n">
         <v>2012</v>
       </c>
@@ -3279,9 +4077,11 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>61</v>
-      </c>
-      <c r="B233"/>
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
       <c r="C233" t="n">
         <v>2013</v>
       </c>
@@ -3291,9 +4091,11 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B234"/>
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
       <c r="C234" t="n">
         <v>2010</v>
       </c>
@@ -3301,9 +4103,11 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>62</v>
-      </c>
-      <c r="B235"/>
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
       <c r="C235" t="n">
         <v>2011</v>
       </c>
@@ -3311,9 +4115,11 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>62</v>
-      </c>
-      <c r="B236"/>
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
       <c r="C236" t="n">
         <v>2012</v>
       </c>
@@ -3321,9 +4127,11 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>62</v>
-      </c>
-      <c r="B237"/>
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
       <c r="C237" t="n">
         <v>2013</v>
       </c>
@@ -3333,9 +4141,11 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238"/>
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
       <c r="C238" t="n">
         <v>2010</v>
       </c>
@@ -3343,9 +4153,11 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>63</v>
-      </c>
-      <c r="B239"/>
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
       <c r="C239" t="n">
         <v>2011</v>
       </c>
@@ -3353,9 +4165,11 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>63</v>
-      </c>
-      <c r="B240"/>
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
       <c r="C240" t="n">
         <v>2012</v>
       </c>
@@ -3363,9 +4177,11 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>63</v>
-      </c>
-      <c r="B241"/>
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
       <c r="C241" t="n">
         <v>2013</v>
       </c>
@@ -3375,9 +4191,11 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>64</v>
-      </c>
-      <c r="B242"/>
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
       <c r="C242" t="n">
         <v>2010</v>
       </c>
@@ -3385,9 +4203,11 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243"/>
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
       <c r="C243" t="n">
         <v>2011</v>
       </c>
@@ -3395,9 +4215,11 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244"/>
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
       <c r="C244" t="n">
         <v>2012</v>
       </c>
@@ -3405,9 +4227,11 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>64</v>
-      </c>
-      <c r="B245"/>
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
       <c r="C245" t="n">
         <v>2013</v>
       </c>
@@ -3417,9 +4241,11 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>65</v>
-      </c>
-      <c r="B246"/>
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
       <c r="C246" t="n">
         <v>2010</v>
       </c>
@@ -3427,9 +4253,11 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>65</v>
-      </c>
-      <c r="B247"/>
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
       <c r="C247" t="n">
         <v>2011</v>
       </c>
@@ -3437,9 +4265,11 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>65</v>
-      </c>
-      <c r="B248"/>
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
       <c r="C248" t="n">
         <v>2012</v>
       </c>
@@ -3447,9 +4277,11 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>65</v>
-      </c>
-      <c r="B249"/>
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
       <c r="C249" t="n">
         <v>2013</v>
       </c>
@@ -3459,9 +4291,11 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B250"/>
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
       <c r="C250" t="n">
         <v>2010</v>
       </c>
@@ -3469,9 +4303,11 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>66</v>
-      </c>
-      <c r="B251"/>
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
       <c r="C251" t="n">
         <v>2011</v>
       </c>
@@ -3479,9 +4315,11 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
-      </c>
-      <c r="B252"/>
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
       <c r="C252" t="n">
         <v>2012</v>
       </c>
@@ -3489,9 +4327,11 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
-      </c>
-      <c r="B253"/>
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
       <c r="C253" t="n">
         <v>2013</v>
       </c>
@@ -3501,9 +4341,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>67</v>
-      </c>
-      <c r="B254"/>
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
       <c r="C254" t="n">
         <v>2010</v>
       </c>
@@ -3511,9 +4353,11 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
-      </c>
-      <c r="B255"/>
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
       <c r="C255" t="n">
         <v>2011</v>
       </c>
@@ -3521,9 +4365,11 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>67</v>
-      </c>
-      <c r="B256"/>
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
       <c r="C256" t="n">
         <v>2012</v>
       </c>
@@ -3531,9 +4377,11 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257"/>
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
       <c r="C257" t="n">
         <v>2013</v>
       </c>
@@ -3543,9 +4391,11 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B258"/>
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
       <c r="C258" t="n">
         <v>2010</v>
       </c>
@@ -3553,9 +4403,11 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
-      </c>
-      <c r="B259"/>
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
       <c r="C259" t="n">
         <v>2011</v>
       </c>
@@ -3563,9 +4415,11 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>68</v>
-      </c>
-      <c r="B260"/>
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
       <c r="C260" t="n">
         <v>2012</v>
       </c>
@@ -3573,9 +4427,11 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>68</v>
-      </c>
-      <c r="B261"/>
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
       <c r="C261" t="n">
         <v>2013</v>
       </c>
@@ -3585,9 +4441,11 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>69</v>
-      </c>
-      <c r="B262"/>
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
       <c r="C262" t="n">
         <v>2010</v>
       </c>
@@ -3595,9 +4453,11 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>69</v>
-      </c>
-      <c r="B263"/>
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
       <c r="C263" t="n">
         <v>2011</v>
       </c>
@@ -3605,9 +4465,11 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>69</v>
-      </c>
-      <c r="B264"/>
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
       <c r="C264" t="n">
         <v>2012</v>
       </c>
@@ -3615,9 +4477,11 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>69</v>
-      </c>
-      <c r="B265"/>
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
       <c r="C265" t="n">
         <v>2013</v>
       </c>
@@ -3627,9 +4491,11 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>70</v>
-      </c>
-      <c r="B266"/>
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
       <c r="C266" t="n">
         <v>2010</v>
       </c>
@@ -3637,9 +4503,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>70</v>
-      </c>
-      <c r="B267"/>
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
       <c r="C267" t="n">
         <v>2011</v>
       </c>
@@ -3647,9 +4515,11 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>70</v>
-      </c>
-      <c r="B268"/>
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
       <c r="C268" t="n">
         <v>2012</v>
       </c>
@@ -3657,9 +4527,11 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>70</v>
-      </c>
-      <c r="B269"/>
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
       <c r="C269" t="n">
         <v>2013</v>
       </c>
@@ -3669,9 +4541,11 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>71</v>
-      </c>
-      <c r="B270"/>
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
       <c r="C270" t="n">
         <v>2010</v>
       </c>
@@ -3679,9 +4553,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>71</v>
-      </c>
-      <c r="B271"/>
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
       <c r="C271" t="n">
         <v>2011</v>
       </c>
@@ -3689,9 +4565,11 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>71</v>
-      </c>
-      <c r="B272"/>
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
       <c r="C272" t="n">
         <v>2012</v>
       </c>
@@ -3699,9 +4577,11 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>71</v>
-      </c>
-      <c r="B273"/>
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
       <c r="C273" t="n">
         <v>2013</v>
       </c>
@@ -3711,9 +4591,11 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>72</v>
-      </c>
-      <c r="B274"/>
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
       <c r="C274" t="n">
         <v>2010</v>
       </c>
@@ -3721,9 +4603,11 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>72</v>
-      </c>
-      <c r="B275"/>
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
       <c r="C275" t="n">
         <v>2011</v>
       </c>
@@ -3731,9 +4615,11 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>72</v>
-      </c>
-      <c r="B276"/>
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
       <c r="C276" t="n">
         <v>2012</v>
       </c>
@@ -3741,9 +4627,11 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>72</v>
-      </c>
-      <c r="B277"/>
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
       <c r="C277" t="n">
         <v>2013</v>
       </c>
@@ -3753,9 +4641,11 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>73</v>
-      </c>
-      <c r="B278"/>
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
       <c r="C278" t="n">
         <v>2010</v>
       </c>
@@ -3763,9 +4653,11 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>73</v>
-      </c>
-      <c r="B279"/>
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
       <c r="C279" t="n">
         <v>2011</v>
       </c>
@@ -3773,9 +4665,11 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>73</v>
-      </c>
-      <c r="B280"/>
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
       <c r="C280" t="n">
         <v>2012</v>
       </c>
@@ -3783,9 +4677,11 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>73</v>
-      </c>
-      <c r="B281"/>
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
       <c r="C281" t="n">
         <v>2013</v>
       </c>
@@ -3795,9 +4691,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>74</v>
-      </c>
-      <c r="B282"/>
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
       <c r="C282" t="n">
         <v>2010</v>
       </c>
@@ -3805,9 +4703,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283"/>
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
       <c r="C283" t="n">
         <v>2011</v>
       </c>
@@ -3815,9 +4715,11 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>74</v>
-      </c>
-      <c r="B284"/>
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
       <c r="C284" t="n">
         <v>2012</v>
       </c>
@@ -3825,9 +4727,11 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285"/>
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
       <c r="C285" t="n">
         <v>2013</v>
       </c>
@@ -3837,9 +4741,11 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>75</v>
-      </c>
-      <c r="B286"/>
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
       <c r="C286" t="n">
         <v>2010</v>
       </c>
@@ -3847,9 +4753,11 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>75</v>
-      </c>
-      <c r="B287"/>
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
       <c r="C287" t="n">
         <v>2011</v>
       </c>
@@ -3857,9 +4765,11 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>75</v>
-      </c>
-      <c r="B288"/>
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
       <c r="C288" t="n">
         <v>2012</v>
       </c>
@@ -3867,9 +4777,11 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>75</v>
-      </c>
-      <c r="B289"/>
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
       <c r="C289" t="n">
         <v>2013</v>
       </c>
@@ -3879,9 +4791,11 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>76</v>
-      </c>
-      <c r="B290"/>
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
       <c r="C290" t="n">
         <v>2010</v>
       </c>
@@ -3889,9 +4803,11 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>76</v>
-      </c>
-      <c r="B291"/>
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
       <c r="C291" t="n">
         <v>2011</v>
       </c>
@@ -3899,9 +4815,11 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>76</v>
-      </c>
-      <c r="B292"/>
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
       <c r="C292" t="n">
         <v>2012</v>
       </c>
@@ -3909,9 +4827,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>76</v>
-      </c>
-      <c r="B293"/>
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
       <c r="C293" t="n">
         <v>2013</v>
       </c>
@@ -3921,9 +4841,11 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>77</v>
-      </c>
-      <c r="B294"/>
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
       <c r="C294" t="n">
         <v>2010</v>
       </c>
@@ -3931,9 +4853,11 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>77</v>
-      </c>
-      <c r="B295"/>
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
       <c r="C295" t="n">
         <v>2011</v>
       </c>
@@ -3941,9 +4865,11 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>77</v>
-      </c>
-      <c r="B296"/>
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
       <c r="C296" t="n">
         <v>2012</v>
       </c>
@@ -3951,9 +4877,11 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>77</v>
-      </c>
-      <c r="B297"/>
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
       <c r="C297" t="n">
         <v>2013</v>
       </c>
@@ -3963,9 +4891,11 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>78</v>
-      </c>
-      <c r="B298"/>
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
       <c r="C298" t="n">
         <v>2010</v>
       </c>
@@ -3973,9 +4903,11 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299"/>
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
       <c r="C299" t="n">
         <v>2011</v>
       </c>
@@ -3983,9 +4915,11 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300"/>
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
       <c r="C300" t="n">
         <v>2012</v>
       </c>
@@ -3993,9 +4927,11 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>78</v>
-      </c>
-      <c r="B301"/>
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
       <c r="C301" t="n">
         <v>2013</v>
       </c>
@@ -4005,9 +4941,11 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>79</v>
-      </c>
-      <c r="B302"/>
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
       <c r="C302" t="n">
         <v>2010</v>
       </c>
@@ -4015,9 +4953,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>79</v>
-      </c>
-      <c r="B303"/>
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
       <c r="C303" t="n">
         <v>2011</v>
       </c>
@@ -4025,9 +4965,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>79</v>
-      </c>
-      <c r="B304"/>
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
       <c r="C304" t="n">
         <v>2012</v>
       </c>
@@ -4035,9 +4977,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>79</v>
-      </c>
-      <c r="B305"/>
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
       <c r="C305" t="n">
         <v>2013</v>
       </c>
@@ -4047,9 +4991,11 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>80</v>
-      </c>
-      <c r="B306"/>
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
       <c r="C306" t="n">
         <v>2010</v>
       </c>
@@ -4057,9 +5003,11 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>80</v>
-      </c>
-      <c r="B307"/>
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
       <c r="C307" t="n">
         <v>2011</v>
       </c>
@@ -4067,9 +5015,11 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>80</v>
-      </c>
-      <c r="B308"/>
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
       <c r="C308" t="n">
         <v>2012</v>
       </c>
@@ -4077,9 +5027,11 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>80</v>
-      </c>
-      <c r="B309"/>
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
       <c r="C309" t="n">
         <v>2013</v>
       </c>
@@ -4089,9 +5041,11 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>81</v>
-      </c>
-      <c r="B310"/>
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
       <c r="C310" t="n">
         <v>2010</v>
       </c>
@@ -4099,9 +5053,11 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>81</v>
-      </c>
-      <c r="B311"/>
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
       <c r="C311" t="n">
         <v>2011</v>
       </c>
@@ -4109,9 +5065,11 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>81</v>
-      </c>
-      <c r="B312"/>
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
       <c r="C312" t="n">
         <v>2012</v>
       </c>
@@ -4119,9 +5077,11 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>81</v>
-      </c>
-      <c r="B313"/>
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
       <c r="C313" t="n">
         <v>2013</v>
       </c>
@@ -4131,9 +5091,11 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>82</v>
-      </c>
-      <c r="B314"/>
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
       <c r="C314" t="n">
         <v>2010</v>
       </c>
@@ -4141,9 +5103,11 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>82</v>
-      </c>
-      <c r="B315"/>
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
       <c r="C315" t="n">
         <v>2011</v>
       </c>
@@ -4151,9 +5115,11 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>82</v>
-      </c>
-      <c r="B316"/>
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
       <c r="C316" t="n">
         <v>2012</v>
       </c>
@@ -4161,9 +5127,11 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>82</v>
-      </c>
-      <c r="B317"/>
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
       <c r="C317" t="n">
         <v>2013</v>
       </c>
@@ -4173,9 +5141,11 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>83</v>
-      </c>
-      <c r="B318"/>
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
       <c r="C318" t="n">
         <v>2010</v>
       </c>
@@ -4183,9 +5153,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>83</v>
-      </c>
-      <c r="B319"/>
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
       <c r="C319" t="n">
         <v>2011</v>
       </c>
@@ -4193,9 +5165,11 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320"/>
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
       <c r="C320" t="n">
         <v>2012</v>
       </c>
@@ -4203,9 +5177,11 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321"/>
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
       <c r="C321" t="n">
         <v>2013</v>
       </c>
@@ -4215,9 +5191,11 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>84</v>
-      </c>
-      <c r="B322"/>
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
       <c r="C322" t="n">
         <v>2010</v>
       </c>
@@ -4225,9 +5203,11 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>84</v>
-      </c>
-      <c r="B323"/>
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
       <c r="C323" t="n">
         <v>2011</v>
       </c>
@@ -4235,9 +5215,11 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>84</v>
-      </c>
-      <c r="B324"/>
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
       <c r="C324" t="n">
         <v>2012</v>
       </c>
@@ -4245,9 +5227,11 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>84</v>
-      </c>
-      <c r="B325"/>
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
       <c r="C325" t="n">
         <v>2013</v>
       </c>
@@ -4257,9 +5241,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326"/>
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
       <c r="C326" t="n">
         <v>2010</v>
       </c>
@@ -4267,9 +5253,11 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>85</v>
-      </c>
-      <c r="B327"/>
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
       <c r="C327" t="n">
         <v>2011</v>
       </c>
@@ -4277,9 +5265,11 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>85</v>
-      </c>
-      <c r="B328"/>
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
       <c r="C328" t="n">
         <v>2012</v>
       </c>
@@ -4287,9 +5277,11 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>85</v>
-      </c>
-      <c r="B329"/>
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
       <c r="C329" t="n">
         <v>2013</v>
       </c>
@@ -4299,9 +5291,11 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>86</v>
-      </c>
-      <c r="B330"/>
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
       <c r="C330" t="n">
         <v>2010</v>
       </c>
@@ -4309,9 +5303,11 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>86</v>
-      </c>
-      <c r="B331"/>
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
       <c r="C331" t="n">
         <v>2011</v>
       </c>
@@ -4319,9 +5315,11 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>86</v>
-      </c>
-      <c r="B332"/>
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
       <c r="C332" t="n">
         <v>2012</v>
       </c>
@@ -4329,9 +5327,11 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>86</v>
-      </c>
-      <c r="B333"/>
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
       <c r="C333" t="n">
         <v>2013</v>
       </c>
@@ -4341,9 +5341,11 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>87</v>
-      </c>
-      <c r="B334"/>
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
       <c r="C334" t="n">
         <v>2010</v>
       </c>
@@ -4351,9 +5353,11 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>87</v>
-      </c>
-      <c r="B335"/>
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
       <c r="C335" t="n">
         <v>2011</v>
       </c>
@@ -4361,9 +5365,11 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>87</v>
-      </c>
-      <c r="B336"/>
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
       <c r="C336" t="n">
         <v>2012</v>
       </c>
@@ -4371,9 +5377,11 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>87</v>
-      </c>
-      <c r="B337"/>
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
       <c r="C337" t="n">
         <v>2013</v>
       </c>
@@ -4383,9 +5391,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>88</v>
-      </c>
-      <c r="B338"/>
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
       <c r="C338" t="n">
         <v>2010</v>
       </c>
@@ -4393,9 +5403,11 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>88</v>
-      </c>
-      <c r="B339"/>
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
       <c r="C339" t="n">
         <v>2011</v>
       </c>
@@ -4403,9 +5415,11 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>88</v>
-      </c>
-      <c r="B340"/>
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
       <c r="C340" t="n">
         <v>2012</v>
       </c>
@@ -4413,9 +5427,11 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>88</v>
-      </c>
-      <c r="B341"/>
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
       <c r="C341" t="n">
         <v>2013</v>
       </c>
@@ -4425,9 +5441,11 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>89</v>
-      </c>
-      <c r="B342"/>
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
       <c r="C342" t="n">
         <v>2010</v>
       </c>
@@ -4435,9 +5453,11 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343"/>
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
       <c r="C343" t="n">
         <v>2011</v>
       </c>
@@ -4445,9 +5465,11 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344"/>
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
       <c r="C344" t="n">
         <v>2012</v>
       </c>
@@ -4455,9 +5477,11 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>89</v>
-      </c>
-      <c r="B345"/>
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
       <c r="C345" t="n">
         <v>2013</v>
       </c>
@@ -4467,9 +5491,11 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>90</v>
-      </c>
-      <c r="B346"/>
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
       <c r="C346" t="n">
         <v>2010</v>
       </c>
@@ -4477,9 +5503,11 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>90</v>
-      </c>
-      <c r="B347"/>
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
       <c r="C347" t="n">
         <v>2011</v>
       </c>
@@ -4487,9 +5515,11 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>90</v>
-      </c>
-      <c r="B348"/>
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
       <c r="C348" t="n">
         <v>2012</v>
       </c>
@@ -4497,9 +5527,11 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>90</v>
-      </c>
-      <c r="B349"/>
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
       <c r="C349" t="n">
         <v>2013</v>
       </c>
@@ -4509,9 +5541,11 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>91</v>
-      </c>
-      <c r="B350"/>
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
       <c r="C350" t="n">
         <v>2010</v>
       </c>
@@ -4519,9 +5553,11 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>91</v>
-      </c>
-      <c r="B351"/>
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
       <c r="C351" t="n">
         <v>2011</v>
       </c>
@@ -4529,9 +5565,11 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>91</v>
-      </c>
-      <c r="B352"/>
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
       <c r="C352" t="n">
         <v>2012</v>
       </c>
@@ -4539,9 +5577,11 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>91</v>
-      </c>
-      <c r="B353"/>
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
       <c r="C353" t="n">
         <v>2013</v>
       </c>
@@ -4551,9 +5591,11 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>92</v>
-      </c>
-      <c r="B354"/>
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
       <c r="C354" t="n">
         <v>2010</v>
       </c>
@@ -4561,9 +5603,11 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>92</v>
-      </c>
-      <c r="B355"/>
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
       <c r="C355" t="n">
         <v>2011</v>
       </c>
@@ -4571,9 +5615,11 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>92</v>
-      </c>
-      <c r="B356"/>
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
       <c r="C356" t="n">
         <v>2012</v>
       </c>
@@ -4581,9 +5627,11 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>92</v>
-      </c>
-      <c r="B357"/>
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
       <c r="C357" t="n">
         <v>2013</v>
       </c>
@@ -4593,9 +5641,11 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>93</v>
-      </c>
-      <c r="B358"/>
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
       <c r="C358" t="n">
         <v>2010</v>
       </c>
@@ -4603,9 +5653,11 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>93</v>
-      </c>
-      <c r="B359"/>
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
       <c r="C359" t="n">
         <v>2011</v>
       </c>
@@ -4613,9 +5665,11 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>93</v>
-      </c>
-      <c r="B360"/>
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
       <c r="C360" t="n">
         <v>2012</v>
       </c>
@@ -4623,9 +5677,11 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>93</v>
-      </c>
-      <c r="B361"/>
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
       <c r="C361" t="n">
         <v>2013</v>
       </c>
@@ -4635,9 +5691,11 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>94</v>
-      </c>
-      <c r="B362"/>
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
       <c r="C362" t="n">
         <v>2010</v>
       </c>
@@ -4645,9 +5703,11 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>94</v>
-      </c>
-      <c r="B363"/>
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
       <c r="C363" t="n">
         <v>2011</v>
       </c>
@@ -4655,9 +5715,11 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>94</v>
-      </c>
-      <c r="B364"/>
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
       <c r="C364" t="n">
         <v>2012</v>
       </c>
@@ -4665,9 +5727,11 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>94</v>
-      </c>
-      <c r="B365"/>
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
       <c r="C365" t="n">
         <v>2013</v>
       </c>
@@ -4677,9 +5741,11 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>95</v>
-      </c>
-      <c r="B366"/>
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
       <c r="C366" t="n">
         <v>2010</v>
       </c>
@@ -4687,9 +5753,11 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>95</v>
-      </c>
-      <c r="B367"/>
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
       <c r="C367" t="n">
         <v>2011</v>
       </c>
@@ -4697,9 +5765,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>95</v>
-      </c>
-      <c r="B368"/>
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
       <c r="C368" t="n">
         <v>2012</v>
       </c>
@@ -4707,9 +5777,11 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>95</v>
-      </c>
-      <c r="B369"/>
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
       <c r="C369" t="n">
         <v>2013</v>
       </c>
@@ -4719,9 +5791,11 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>96</v>
-      </c>
-      <c r="B370"/>
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
       <c r="C370" t="n">
         <v>2010</v>
       </c>
@@ -4729,9 +5803,11 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>96</v>
-      </c>
-      <c r="B371"/>
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
       <c r="C371" t="n">
         <v>2011</v>
       </c>
@@ -4739,9 +5815,11 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>96</v>
-      </c>
-      <c r="B372"/>
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
       <c r="C372" t="n">
         <v>2012</v>
       </c>
@@ -4749,9 +5827,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>96</v>
-      </c>
-      <c r="B373"/>
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
       <c r="C373" t="n">
         <v>2013</v>
       </c>
@@ -4761,9 +5841,11 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>97</v>
-      </c>
-      <c r="B374"/>
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
       <c r="C374" t="n">
         <v>2010</v>
       </c>
@@ -4771,9 +5853,11 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>97</v>
-      </c>
-      <c r="B375"/>
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
       <c r="C375" t="n">
         <v>2011</v>
       </c>
@@ -4781,9 +5865,11 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>97</v>
-      </c>
-      <c r="B376"/>
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
       <c r="C376" t="n">
         <v>2012</v>
       </c>
@@ -4791,9 +5877,11 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>97</v>
-      </c>
-      <c r="B377"/>
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
       <c r="C377" t="n">
         <v>2013</v>
       </c>
@@ -4803,9 +5891,11 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>98</v>
-      </c>
-      <c r="B378"/>
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
       <c r="C378" t="n">
         <v>2010</v>
       </c>
@@ -4813,9 +5903,11 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>98</v>
-      </c>
-      <c r="B379"/>
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
       <c r="C379" t="n">
         <v>2011</v>
       </c>
@@ -4823,9 +5915,11 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>98</v>
-      </c>
-      <c r="B380"/>
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
       <c r="C380" t="n">
         <v>2012</v>
       </c>
@@ -4833,9 +5927,11 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>98</v>
-      </c>
-      <c r="B381"/>
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
       <c r="C381" t="n">
         <v>2013</v>
       </c>
@@ -4845,9 +5941,11 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>99</v>
-      </c>
-      <c r="B382"/>
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
       <c r="C382" t="n">
         <v>2010</v>
       </c>
@@ -4855,9 +5953,11 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>99</v>
-      </c>
-      <c r="B383"/>
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
       <c r="C383" t="n">
         <v>2011</v>
       </c>
@@ -4865,9 +5965,11 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>99</v>
-      </c>
-      <c r="B384"/>
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
       <c r="C384" t="n">
         <v>2012</v>
       </c>
@@ -4875,9 +5977,11 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>99</v>
-      </c>
-      <c r="B385"/>
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
       <c r="C385" t="n">
         <v>2013</v>
       </c>
@@ -4887,9 +5991,11 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>100</v>
-      </c>
-      <c r="B386"/>
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
       <c r="C386" t="n">
         <v>2010</v>
       </c>
@@ -4897,9 +6003,11 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>100</v>
-      </c>
-      <c r="B387"/>
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
       <c r="C387" t="n">
         <v>2011</v>
       </c>
@@ -4907,9 +6015,11 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>100</v>
-      </c>
-      <c r="B388"/>
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
       <c r="C388" t="n">
         <v>2012</v>
       </c>
@@ -4917,9 +6027,11 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>100</v>
-      </c>
-      <c r="B389"/>
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
       <c r="C389" t="n">
         <v>2013</v>
       </c>
@@ -4929,9 +6041,11 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>101</v>
-      </c>
-      <c r="B390"/>
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
       <c r="C390" t="n">
         <v>2010</v>
       </c>
@@ -4939,9 +6053,11 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>101</v>
-      </c>
-      <c r="B391"/>
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
       <c r="C391" t="n">
         <v>2011</v>
       </c>
@@ -4949,9 +6065,11 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>101</v>
-      </c>
-      <c r="B392"/>
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
       <c r="C392" t="n">
         <v>2012</v>
       </c>
@@ -4959,9 +6077,11 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>101</v>
-      </c>
-      <c r="B393"/>
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
       <c r="C393" t="n">
         <v>2013</v>
       </c>
@@ -4971,9 +6091,11 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>102</v>
-      </c>
-      <c r="B394"/>
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
       <c r="C394" t="n">
         <v>2010</v>
       </c>
@@ -4981,9 +6103,11 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>102</v>
-      </c>
-      <c r="B395"/>
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
       <c r="C395" t="n">
         <v>2011</v>
       </c>
@@ -4991,9 +6115,11 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>102</v>
-      </c>
-      <c r="B396"/>
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
       <c r="C396" t="n">
         <v>2012</v>
       </c>
@@ -5001,9 +6127,11 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>102</v>
-      </c>
-      <c r="B397"/>
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
       <c r="C397" t="n">
         <v>2013</v>
       </c>
@@ -5013,9 +6141,11 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>103</v>
-      </c>
-      <c r="B398"/>
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
       <c r="C398" t="n">
         <v>2010</v>
       </c>
@@ -5023,9 +6153,11 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>103</v>
-      </c>
-      <c r="B399"/>
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
       <c r="C399" t="n">
         <v>2011</v>
       </c>
@@ -5033,9 +6165,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>103</v>
-      </c>
-      <c r="B400"/>
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
       <c r="C400" t="n">
         <v>2012</v>
       </c>
@@ -5043,9 +6177,11 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>103</v>
-      </c>
-      <c r="B401"/>
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
       <c r="C401" t="n">
         <v>2013</v>
       </c>
@@ -5055,9 +6191,11 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>104</v>
-      </c>
-      <c r="B402"/>
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
       <c r="C402" t="n">
         <v>2010</v>
       </c>
@@ -5065,9 +6203,11 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>104</v>
-      </c>
-      <c r="B403"/>
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
       <c r="C403" t="n">
         <v>2011</v>
       </c>
@@ -5075,9 +6215,11 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>104</v>
-      </c>
-      <c r="B404"/>
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
       <c r="C404" t="n">
         <v>2012</v>
       </c>
@@ -5085,9 +6227,11 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>104</v>
-      </c>
-      <c r="B405"/>
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
       <c r="C405" t="n">
         <v>2013</v>
       </c>
@@ -5097,9 +6241,11 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>105</v>
-      </c>
-      <c r="B406"/>
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
       <c r="C406" t="n">
         <v>2010</v>
       </c>
@@ -5107,9 +6253,11 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>105</v>
-      </c>
-      <c r="B407"/>
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
       <c r="C407" t="n">
         <v>2011</v>
       </c>
@@ -5117,9 +6265,11 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>105</v>
-      </c>
-      <c r="B408"/>
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
       <c r="C408" t="n">
         <v>2012</v>
       </c>
@@ -5127,9 +6277,11 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>105</v>
-      </c>
-      <c r="B409"/>
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
       <c r="C409" t="n">
         <v>2013</v>
       </c>
@@ -5139,9 +6291,11 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>106</v>
-      </c>
-      <c r="B410"/>
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
       <c r="C410" t="n">
         <v>2010</v>
       </c>
@@ -5149,9 +6303,11 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>106</v>
-      </c>
-      <c r="B411"/>
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
       <c r="C411" t="n">
         <v>2011</v>
       </c>
@@ -5159,9 +6315,11 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>106</v>
-      </c>
-      <c r="B412"/>
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
       <c r="C412" t="n">
         <v>2012</v>
       </c>
@@ -5169,9 +6327,11 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>106</v>
-      </c>
-      <c r="B413"/>
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
       <c r="C413" t="n">
         <v>2013</v>
       </c>
@@ -5181,9 +6341,11 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>107</v>
-      </c>
-      <c r="B414"/>
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
       <c r="C414" t="n">
         <v>2010</v>
       </c>
@@ -5191,9 +6353,11 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>107</v>
-      </c>
-      <c r="B415"/>
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
       <c r="C415" t="n">
         <v>2011</v>
       </c>
@@ -5201,9 +6365,11 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>107</v>
-      </c>
-      <c r="B416"/>
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
       <c r="C416" t="n">
         <v>2012</v>
       </c>
@@ -5211,9 +6377,11 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>107</v>
-      </c>
-      <c r="B417"/>
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
       <c r="C417" t="n">
         <v>2013</v>
       </c>
@@ -5223,9 +6391,11 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>108</v>
-      </c>
-      <c r="B418"/>
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
       <c r="C418" t="n">
         <v>2010</v>
       </c>
@@ -5233,9 +6403,11 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>108</v>
-      </c>
-      <c r="B419"/>
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
       <c r="C419" t="n">
         <v>2011</v>
       </c>
@@ -5243,9 +6415,11 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>108</v>
-      </c>
-      <c r="B420"/>
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
       <c r="C420" t="n">
         <v>2012</v>
       </c>
@@ -5253,9 +6427,11 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>108</v>
-      </c>
-      <c r="B421"/>
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
       <c r="C421" t="n">
         <v>2013</v>
       </c>
@@ -5265,9 +6441,11 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>109</v>
-      </c>
-      <c r="B422"/>
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
       <c r="C422" t="n">
         <v>2010</v>
       </c>
@@ -5275,9 +6453,11 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>109</v>
-      </c>
-      <c r="B423"/>
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
       <c r="C423" t="n">
         <v>2011</v>
       </c>
@@ -5285,9 +6465,11 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>109</v>
-      </c>
-      <c r="B424"/>
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
       <c r="C424" t="n">
         <v>2012</v>
       </c>
@@ -5295,9 +6477,11 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>109</v>
-      </c>
-      <c r="B425"/>
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
       <c r="C425" t="n">
         <v>2013</v>
       </c>
@@ -5307,9 +6491,11 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>110</v>
-      </c>
-      <c r="B426"/>
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
       <c r="C426" t="n">
         <v>2010</v>
       </c>
@@ -5317,9 +6503,11 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>110</v>
-      </c>
-      <c r="B427"/>
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
       <c r="C427" t="n">
         <v>2011</v>
       </c>
@@ -5327,9 +6515,11 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>110</v>
-      </c>
-      <c r="B428"/>
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
       <c r="C428" t="n">
         <v>2012</v>
       </c>
@@ -5337,9 +6527,11 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>110</v>
-      </c>
-      <c r="B429"/>
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
       <c r="C429" t="n">
         <v>2013</v>
       </c>
@@ -5349,9 +6541,11 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>111</v>
-      </c>
-      <c r="B430"/>
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
       <c r="C430" t="n">
         <v>2010</v>
       </c>
@@ -5359,9 +6553,11 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>111</v>
-      </c>
-      <c r="B431"/>
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
       <c r="C431" t="n">
         <v>2011</v>
       </c>
@@ -5369,9 +6565,11 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>111</v>
-      </c>
-      <c r="B432"/>
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
       <c r="C432" t="n">
         <v>2012</v>
       </c>
@@ -5379,9 +6577,11 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>111</v>
-      </c>
-      <c r="B433"/>
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
       <c r="C433" t="n">
         <v>2013</v>
       </c>
@@ -5391,9 +6591,11 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>112</v>
-      </c>
-      <c r="B434"/>
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
       <c r="C434" t="n">
         <v>2010</v>
       </c>
@@ -5401,9 +6603,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>112</v>
-      </c>
-      <c r="B435"/>
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
       <c r="C435" t="n">
         <v>2011</v>
       </c>
@@ -5411,9 +6615,11 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>112</v>
-      </c>
-      <c r="B436"/>
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
       <c r="C436" t="n">
         <v>2012</v>
       </c>
@@ -5421,9 +6627,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>112</v>
-      </c>
-      <c r="B437"/>
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
       <c r="C437" t="n">
         <v>2013</v>
       </c>
@@ -5433,9 +6641,11 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>113</v>
-      </c>
-      <c r="B438"/>
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
       <c r="C438" t="n">
         <v>2010</v>
       </c>
@@ -5443,9 +6653,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>113</v>
-      </c>
-      <c r="B439"/>
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
       <c r="C439" t="n">
         <v>2011</v>
       </c>
@@ -5453,9 +6665,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>113</v>
-      </c>
-      <c r="B440"/>
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
       <c r="C440" t="n">
         <v>2012</v>
       </c>
@@ -5463,9 +6677,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>113</v>
-      </c>
-      <c r="B441"/>
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
       <c r="C441" t="n">
         <v>2013</v>
       </c>
@@ -5475,9 +6691,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>114</v>
-      </c>
-      <c r="B442"/>
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
       <c r="C442" t="n">
         <v>2010</v>
       </c>
@@ -5485,9 +6703,11 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>114</v>
-      </c>
-      <c r="B443"/>
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
       <c r="C443" t="n">
         <v>2011</v>
       </c>
@@ -5495,9 +6715,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>114</v>
-      </c>
-      <c r="B444"/>
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
       <c r="C444" t="n">
         <v>2012</v>
       </c>
@@ -5505,9 +6727,11 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>114</v>
-      </c>
-      <c r="B445"/>
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
       <c r="C445" t="n">
         <v>2013</v>
       </c>
@@ -5517,9 +6741,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>115</v>
-      </c>
-      <c r="B446"/>
+        <v>226</v>
+      </c>
+      <c r="B446" t="s">
+        <v>227</v>
+      </c>
       <c r="C446" t="n">
         <v>2010</v>
       </c>
@@ -5527,9 +6753,11 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>115</v>
-      </c>
-      <c r="B447"/>
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
       <c r="C447" t="n">
         <v>2011</v>
       </c>
@@ -5537,9 +6765,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>115</v>
-      </c>
-      <c r="B448"/>
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
       <c r="C448" t="n">
         <v>2012</v>
       </c>
@@ -5547,9 +6777,11 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>115</v>
-      </c>
-      <c r="B449"/>
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
       <c r="C449" t="n">
         <v>2013</v>
       </c>
@@ -5576,16 +6808,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -5601,7 +6833,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5612,7 +6844,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -5623,7 +6855,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -5634,7 +6866,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -5645,7 +6877,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -5656,7 +6888,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -5667,7 +6899,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -5678,7 +6910,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -5689,7 +6921,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -5700,7 +6932,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -5711,7 +6943,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -5722,7 +6954,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5733,7 +6965,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -5744,7 +6976,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -5755,7 +6987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5766,7 +6998,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -5777,7 +7009,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -5788,7 +7020,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -5799,7 +7031,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -5810,7 +7042,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -5821,7 +7053,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -5832,7 +7064,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -5843,7 +7075,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -5854,7 +7086,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -5865,7 +7097,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -5876,7 +7108,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -5887,7 +7119,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -5898,7 +7130,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -5909,7 +7141,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -5920,7 +7152,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -5931,7 +7163,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -5942,7 +7174,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -5953,7 +7185,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -5964,7 +7196,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -5975,7 +7207,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -5986,7 +7218,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -5997,7 +7229,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -6008,7 +7240,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -6019,7 +7251,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -6030,7 +7262,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -6041,7 +7273,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -6052,7 +7284,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -6063,7 +7295,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -6074,7 +7306,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -6085,7 +7317,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -6096,7 +7328,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -6107,7 +7339,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -6118,7 +7350,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -6129,7 +7361,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -6140,7 +7372,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -6151,7 +7383,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -6162,7 +7394,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -6173,7 +7405,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -6184,7 +7416,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -6195,7 +7427,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -6206,7 +7438,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -6217,7 +7449,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -6228,7 +7460,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -6239,7 +7471,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -6250,7 +7482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -6261,7 +7493,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -6272,7 +7504,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -6283,7 +7515,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -6294,7 +7526,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -6305,7 +7537,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -6316,7 +7548,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -6327,7 +7559,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -6338,7 +7570,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -6349,7 +7581,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -6360,7 +7592,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -6371,7 +7603,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -6382,7 +7614,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -6393,7 +7625,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -6404,7 +7636,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -6415,7 +7647,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -6426,7 +7658,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -6437,7 +7669,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -6448,7 +7680,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -6459,7 +7691,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -6470,7 +7702,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -6481,7 +7713,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -6492,7 +7724,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -6503,7 +7735,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -6514,7 +7746,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -6525,7 +7757,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -6536,7 +7768,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -6547,7 +7779,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -6558,7 +7790,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -6569,7 +7801,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -6580,7 +7812,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -6591,7 +7823,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -6602,7 +7834,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -6613,7 +7845,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -6624,7 +7856,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -6635,7 +7867,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -6646,7 +7878,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -6657,7 +7889,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -6668,7 +7900,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -6679,7 +7911,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -6690,7 +7922,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -6701,7 +7933,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -6712,7 +7944,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -6723,7 +7955,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -6734,7 +7966,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -6745,7 +7977,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -6756,7 +7988,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -6767,7 +7999,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -6778,7 +8010,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -6789,7 +8021,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -6800,7 +8032,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -6811,7 +8043,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>

--- a/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
+++ b/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -1236,7 +1236,7 @@
         <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1286,7 +1286,7 @@
         <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1336,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -1386,7 +1386,7 @@
         <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1436,7 +1436,7 @@
         <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -1486,7 +1486,7 @@
         <v>2013</v>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1536,7 +1536,7 @@
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1586,7 +1586,7 @@
         <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -1636,7 +1636,7 @@
         <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -1686,7 +1686,7 @@
         <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -1736,7 +1736,7 @@
         <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
@@ -1786,7 +1786,7 @@
         <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -1836,7 +1836,7 @@
         <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -1936,7 +1936,7 @@
         <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -1986,7 +1986,7 @@
         <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
@@ -2036,7 +2036,7 @@
         <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -2086,7 +2086,7 @@
         <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
@@ -2136,7 +2136,7 @@
         <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -2236,7 +2236,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
@@ -2286,7 +2286,7 @@
         <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
@@ -2336,7 +2336,7 @@
         <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
@@ -2386,7 +2386,7 @@
         <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98">
@@ -2436,7 +2436,7 @@
         <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
@@ -2486,7 +2486,7 @@
         <v>2013</v>
       </c>
       <c r="D105" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2536,7 +2536,7 @@
         <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -2586,7 +2586,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114">
@@ -2636,7 +2636,7 @@
         <v>2013</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118">
@@ -2686,7 +2686,7 @@
         <v>2013</v>
       </c>
       <c r="D121" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122">
@@ -2736,7 +2736,7 @@
         <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
@@ -2786,7 +2786,7 @@
         <v>2013</v>
       </c>
       <c r="D129" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
@@ -2836,7 +2836,7 @@
         <v>2013</v>
       </c>
       <c r="D133" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -2886,7 +2886,7 @@
         <v>2013</v>
       </c>
       <c r="D137" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
@@ -2936,7 +2936,7 @@
         <v>2013</v>
       </c>
       <c r="D141" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
@@ -2986,7 +2986,7 @@
         <v>2013</v>
       </c>
       <c r="D145" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146">
@@ -3086,7 +3086,7 @@
         <v>2013</v>
       </c>
       <c r="D153" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154">
@@ -3136,7 +3136,7 @@
         <v>2013</v>
       </c>
       <c r="D157" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158">
@@ -3186,7 +3186,7 @@
         <v>2013</v>
       </c>
       <c r="D161" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162">
@@ -3236,7 +3236,7 @@
         <v>2013</v>
       </c>
       <c r="D165" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166">
@@ -3286,7 +3286,7 @@
         <v>2013</v>
       </c>
       <c r="D169" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
@@ -3336,7 +3336,7 @@
         <v>2013</v>
       </c>
       <c r="D173" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
@@ -3386,7 +3386,7 @@
         <v>2013</v>
       </c>
       <c r="D177" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -3436,7 +3436,7 @@
         <v>2013</v>
       </c>
       <c r="D181" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182">
@@ -3486,7 +3486,7 @@
         <v>2013</v>
       </c>
       <c r="D185" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186">
@@ -3536,7 +3536,7 @@
         <v>2013</v>
       </c>
       <c r="D189" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190">
@@ -3586,7 +3586,7 @@
         <v>2013</v>
       </c>
       <c r="D193" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194">
@@ -3636,7 +3636,7 @@
         <v>2013</v>
       </c>
       <c r="D197" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
@@ -3686,7 +3686,7 @@
         <v>2013</v>
       </c>
       <c r="D201" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
@@ -3736,7 +3736,7 @@
         <v>2013</v>
       </c>
       <c r="D205" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206">
@@ -3786,7 +3786,7 @@
         <v>2013</v>
       </c>
       <c r="D209" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210">
@@ -3836,7 +3836,7 @@
         <v>2013</v>
       </c>
       <c r="D213" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214">
@@ -3886,7 +3886,7 @@
         <v>2013</v>
       </c>
       <c r="D217" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218">
@@ -3936,7 +3936,7 @@
         <v>2013</v>
       </c>
       <c r="D221" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222">
@@ -3986,7 +3986,7 @@
         <v>2013</v>
       </c>
       <c r="D225" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226">
@@ -4036,7 +4036,7 @@
         <v>2013</v>
       </c>
       <c r="D229" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
@@ -4086,7 +4086,7 @@
         <v>2013</v>
       </c>
       <c r="D233" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234">
@@ -4186,7 +4186,7 @@
         <v>2013</v>
       </c>
       <c r="D241" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242">
@@ -4236,7 +4236,7 @@
         <v>2013</v>
       </c>
       <c r="D245" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246">
@@ -4286,7 +4286,7 @@
         <v>2013</v>
       </c>
       <c r="D249" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="250">
@@ -4336,7 +4336,7 @@
         <v>2013</v>
       </c>
       <c r="D253" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254">
@@ -4386,7 +4386,7 @@
         <v>2013</v>
       </c>
       <c r="D257" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="258">
@@ -4436,7 +4436,7 @@
         <v>2013</v>
       </c>
       <c r="D261" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262">
@@ -4486,7 +4486,7 @@
         <v>2013</v>
       </c>
       <c r="D265" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266">
@@ -4536,7 +4536,7 @@
         <v>2013</v>
       </c>
       <c r="D269" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270">
@@ -4586,7 +4586,7 @@
         <v>2013</v>
       </c>
       <c r="D273" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274">
@@ -4636,7 +4636,7 @@
         <v>2013</v>
       </c>
       <c r="D277" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="278">
@@ -4686,7 +4686,7 @@
         <v>2013</v>
       </c>
       <c r="D281" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282">
@@ -4736,7 +4736,7 @@
         <v>2013</v>
       </c>
       <c r="D285" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="286">
@@ -4786,7 +4786,7 @@
         <v>2013</v>
       </c>
       <c r="D289" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="290">
@@ -4836,7 +4836,7 @@
         <v>2013</v>
       </c>
       <c r="D293" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="294">
@@ -4886,7 +4886,7 @@
         <v>2013</v>
       </c>
       <c r="D297" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="298">
@@ -4936,7 +4936,7 @@
         <v>2013</v>
       </c>
       <c r="D301" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302">
@@ -4986,7 +4986,7 @@
         <v>2013</v>
       </c>
       <c r="D305" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306">
@@ -5036,7 +5036,7 @@
         <v>2013</v>
       </c>
       <c r="D309" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310">
@@ -5086,7 +5086,7 @@
         <v>2013</v>
       </c>
       <c r="D313" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="314">
@@ -5136,7 +5136,7 @@
         <v>2013</v>
       </c>
       <c r="D317" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="318">
@@ -5186,7 +5186,7 @@
         <v>2013</v>
       </c>
       <c r="D321" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="322">
@@ -5236,7 +5236,7 @@
         <v>2013</v>
       </c>
       <c r="D325" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="326">
@@ -5286,7 +5286,7 @@
         <v>2013</v>
       </c>
       <c r="D329" t="n">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330">
@@ -5336,7 +5336,7 @@
         <v>2013</v>
       </c>
       <c r="D333" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334">
@@ -5386,7 +5386,7 @@
         <v>2013</v>
       </c>
       <c r="D337" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="338">
@@ -5436,7 +5436,7 @@
         <v>2013</v>
       </c>
       <c r="D341" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="342">
@@ -5486,7 +5486,7 @@
         <v>2013</v>
       </c>
       <c r="D345" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="346">
@@ -5536,7 +5536,7 @@
         <v>2013</v>
       </c>
       <c r="D349" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="350">
@@ -5586,7 +5586,7 @@
         <v>2013</v>
       </c>
       <c r="D353" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="354">
@@ -5636,7 +5636,7 @@
         <v>2013</v>
       </c>
       <c r="D357" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358">
@@ -5686,7 +5686,7 @@
         <v>2013</v>
       </c>
       <c r="D361" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="362">
@@ -5736,7 +5736,7 @@
         <v>2013</v>
       </c>
       <c r="D365" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="366">
@@ -5786,7 +5786,7 @@
         <v>2013</v>
       </c>
       <c r="D369" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370">
@@ -5836,7 +5836,7 @@
         <v>2013</v>
       </c>
       <c r="D373" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="374">
@@ -5886,7 +5886,7 @@
         <v>2013</v>
       </c>
       <c r="D377" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="378">
@@ -5936,7 +5936,7 @@
         <v>2013</v>
       </c>
       <c r="D381" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="382">
@@ -5986,7 +5986,7 @@
         <v>2013</v>
       </c>
       <c r="D385" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="386">
@@ -6036,7 +6036,7 @@
         <v>2013</v>
       </c>
       <c r="D389" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="390">
@@ -6086,7 +6086,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="394">
@@ -6136,7 +6136,7 @@
         <v>2013</v>
       </c>
       <c r="D397" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="398">
@@ -6186,7 +6186,7 @@
         <v>2013</v>
       </c>
       <c r="D401" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="402">
@@ -6236,7 +6236,7 @@
         <v>2013</v>
       </c>
       <c r="D405" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="406">
@@ -6286,7 +6286,7 @@
         <v>2013</v>
       </c>
       <c r="D409" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="410">
@@ -6336,7 +6336,7 @@
         <v>2013</v>
       </c>
       <c r="D413" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="414">
@@ -6386,7 +6386,7 @@
         <v>2013</v>
       </c>
       <c r="D417" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="418">
@@ -6436,7 +6436,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="422">
@@ -6486,7 +6486,7 @@
         <v>2013</v>
       </c>
       <c r="D425" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="426">
@@ -6536,7 +6536,7 @@
         <v>2013</v>
       </c>
       <c r="D429" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="430">
@@ -6586,7 +6586,7 @@
         <v>2013</v>
       </c>
       <c r="D433" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="434">
@@ -6636,7 +6636,7 @@
         <v>2013</v>
       </c>
       <c r="D437" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="438">
@@ -6686,7 +6686,7 @@
         <v>2013</v>
       </c>
       <c r="D441" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="442">
@@ -6736,7 +6736,7 @@
         <v>2013</v>
       </c>
       <c r="D445" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446">
@@ -6786,7 +6786,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6808,15 +6808,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6824,219 +6827,279 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" t="n">
-        <v>95</v>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" t="n">
-        <v>34</v>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" t="n">
-        <v>27</v>
+      <c r="E4"/>
+      <c r="F4" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" t="n">
-        <v>39</v>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" t="n">
-        <v>34</v>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" t="n">
-        <v>22</v>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" t="n">
-        <v>47</v>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" t="n">
-        <v>39</v>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" t="n">
-        <v>53</v>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11" t="n">
-        <v>54</v>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12"/>
       <c r="D12"/>
-      <c r="E12" t="n">
-        <v>41</v>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" t="n">
-        <v>34</v>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" t="n">
-        <v>26</v>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" t="n">
-        <v>71</v>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" t="n">
-        <v>29</v>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" t="n">
-        <v>43</v>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" t="n">
-        <v>22</v>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" t="n">
-        <v>60</v>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" t="n">
-        <v>61</v>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" t="n">
+      <c r="E21"/>
+      <c r="F21" t="n">
         <v>32</v>
       </c>
     </row>
@@ -7044,186 +7107,237 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" t="n">
-        <v>53</v>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" t="n">
-        <v>30</v>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24" t="n">
-        <v>42</v>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" t="n">
-        <v>42</v>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" t="n">
-        <v>36</v>
+      <c r="E26"/>
+      <c r="F26" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27" t="n">
-        <v>43</v>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" t="n">
-        <v>32</v>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" t="n">
-        <v>45</v>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" t="n">
-        <v>34</v>
+      <c r="E30"/>
+      <c r="F30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31" t="n">
-        <v>53</v>
+      <c r="E31"/>
+      <c r="F31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" t="n">
-        <v>55</v>
+      <c r="E32"/>
+      <c r="F32" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" t="n">
-        <v>60</v>
+      <c r="E33"/>
+      <c r="F33" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" t="n">
-        <v>43</v>
+      <c r="E34"/>
+      <c r="F34" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" t="n">
-        <v>45</v>
+      <c r="E35"/>
+      <c r="F35" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" t="n">
-        <v>32</v>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" t="n">
-        <v>54</v>
+      <c r="E37"/>
+      <c r="F37" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" t="n">
+      <c r="E38"/>
+      <c r="F38" t="n">
         <v>56</v>
       </c>
     </row>
@@ -7231,241 +7345,307 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39" t="n">
-        <v>26</v>
+      <c r="E39"/>
+      <c r="F39" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40" t="n">
-        <v>51</v>
+      <c r="E40"/>
+      <c r="F40" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41" t="n">
-        <v>51</v>
+      <c r="E41"/>
+      <c r="F41" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42"/>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42" t="n">
-        <v>38</v>
+      <c r="E42"/>
+      <c r="F42" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="E43" t="n">
-        <v>67</v>
+      <c r="E43"/>
+      <c r="F43" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44" t="n">
-        <v>51</v>
+      <c r="E44"/>
+      <c r="F44" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45"/>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45" t="n">
-        <v>77</v>
+      <c r="E45"/>
+      <c r="F45" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" t="n">
-        <v>59</v>
+      <c r="E46"/>
+      <c r="F46" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47"/>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" t="n">
-        <v>64</v>
+      <c r="E47"/>
+      <c r="F47" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" t="n">
-        <v>44</v>
+      <c r="E48"/>
+      <c r="F48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" t="n">
-        <v>26</v>
+      <c r="E49"/>
+      <c r="F49" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" t="n">
-        <v>31</v>
+      <c r="E50"/>
+      <c r="F50" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51" t="n">
-        <v>28</v>
+      <c r="E51"/>
+      <c r="F51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" t="n">
-        <v>21</v>
+      <c r="E52"/>
+      <c r="F52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" t="n">
-        <v>37</v>
+      <c r="E53"/>
+      <c r="F53" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54"/>
       <c r="D54"/>
-      <c r="E54" t="n">
-        <v>24</v>
+      <c r="E54"/>
+      <c r="F54" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55" t="n">
-        <v>49</v>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" t="n">
-        <v>46</v>
+      <c r="E56"/>
+      <c r="F56" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" t="n">
-        <v>54</v>
+      <c r="E57"/>
+      <c r="F57" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58" t="n">
-        <v>54</v>
+      <c r="E58"/>
+      <c r="F58" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" t="n">
-        <v>84</v>
+      <c r="E59"/>
+      <c r="F59" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" t="n">
+      <c r="E60"/>
+      <c r="F60" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7473,583 +7653,742 @@
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" t="n">
-        <v>56</v>
+      <c r="E61"/>
+      <c r="F61" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" t="n">
-        <v>16</v>
+      <c r="E62"/>
+      <c r="F62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" t="n">
-        <v>41</v>
+      <c r="E63"/>
+      <c r="F63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" t="n">
-        <v>33</v>
+      <c r="E64"/>
+      <c r="F64" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" t="n">
-        <v>69</v>
+      <c r="E65"/>
+      <c r="F65" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66"/>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" t="n">
-        <v>40</v>
+      <c r="E66"/>
+      <c r="F66" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" t="n">
-        <v>54</v>
+      <c r="E67"/>
+      <c r="F67" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" t="n">
-        <v>79</v>
+      <c r="E68"/>
+      <c r="F68" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69" t="n">
-        <v>56</v>
+      <c r="E69"/>
+      <c r="F69" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="E70" t="n">
-        <v>25</v>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71" t="n">
-        <v>65</v>
+      <c r="E71"/>
+      <c r="F71" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72" t="n">
-        <v>69</v>
+      <c r="E72"/>
+      <c r="F72" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" t="n">
-        <v>77</v>
+      <c r="E73"/>
+      <c r="F73" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74" t="n">
-        <v>62</v>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="E75" t="n">
-        <v>70</v>
+      <c r="E75"/>
+      <c r="F75" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" t="n">
-        <v>35</v>
+      <c r="E76"/>
+      <c r="F76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77" t="n">
-        <v>49</v>
+      <c r="E77"/>
+      <c r="F77" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" t="n">
-        <v>77</v>
+      <c r="E78"/>
+      <c r="F78" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79"/>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="E79" t="n">
-        <v>65</v>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80" t="n">
-        <v>58</v>
+      <c r="E80"/>
+      <c r="F80" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81"/>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81" t="n">
-        <v>100</v>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82"/>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" t="n">
-        <v>51</v>
+      <c r="E82"/>
+      <c r="F82" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83" t="n">
-        <v>94</v>
+      <c r="E83"/>
+      <c r="F83" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84" t="n">
-        <v>54</v>
+      <c r="E84"/>
+      <c r="F84" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85" t="n">
-        <v>85</v>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="E86" t="n">
-        <v>81</v>
+      <c r="E86"/>
+      <c r="F86" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" t="n">
-        <v>42</v>
+      <c r="E87"/>
+      <c r="F87" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88" t="n">
-        <v>59</v>
+      <c r="E88"/>
+      <c r="F88" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89" t="n">
-        <v>37</v>
+      <c r="E89"/>
+      <c r="F89" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="E90" t="n">
-        <v>47</v>
+      <c r="E90"/>
+      <c r="F90" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91" t="n">
-        <v>56</v>
+      <c r="E91"/>
+      <c r="F91" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" t="n">
-        <v>60</v>
+      <c r="E92"/>
+      <c r="F92" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" t="n">
-        <v>36</v>
+      <c r="E93"/>
+      <c r="F93" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94" t="n">
-        <v>41</v>
+      <c r="E94"/>
+      <c r="F94" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95"/>
       <c r="D95"/>
-      <c r="E95" t="n">
-        <v>58</v>
+      <c r="E95"/>
+      <c r="F95" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96"/>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96"/>
       <c r="D96"/>
-      <c r="E96" t="n">
-        <v>50</v>
+      <c r="E96"/>
+      <c r="F96" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97"/>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" t="n">
-        <v>58</v>
+      <c r="E97"/>
+      <c r="F97" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98"/>
       <c r="D98"/>
-      <c r="E98" t="n">
-        <v>39</v>
+      <c r="E98"/>
+      <c r="F98" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99"/>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99"/>
       <c r="D99"/>
-      <c r="E99" t="n">
-        <v>66</v>
+      <c r="E99"/>
+      <c r="F99" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" t="n">
-        <v>34</v>
+      <c r="E100"/>
+      <c r="F100" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" t="n">
-        <v>53</v>
+      <c r="E101"/>
+      <c r="F101" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102"/>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="E102" t="n">
-        <v>43</v>
+      <c r="E102"/>
+      <c r="F102" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103"/>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103"/>
       <c r="D103"/>
-      <c r="E103" t="n">
-        <v>32</v>
+      <c r="E103"/>
+      <c r="F103" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104"/>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="E104" t="n">
-        <v>44</v>
+      <c r="E104"/>
+      <c r="F104" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105"/>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105" t="n">
-        <v>59</v>
+      <c r="E105"/>
+      <c r="F105" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106"/>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" t="n">
-        <v>64</v>
+      <c r="E106"/>
+      <c r="F106" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107"/>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" t="n">
-        <v>33</v>
+      <c r="E107"/>
+      <c r="F107" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108"/>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108"/>
       <c r="D108"/>
-      <c r="E108" t="n">
-        <v>21</v>
+      <c r="E108"/>
+      <c r="F108" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109"/>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="E109" t="n">
-        <v>57</v>
+      <c r="E109"/>
+      <c r="F109" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110"/>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="E110" t="n">
-        <v>43</v>
+      <c r="E110"/>
+      <c r="F110" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111"/>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" t="n">
-        <v>96</v>
+      <c r="E111"/>
+      <c r="F111" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112"/>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" t="n">
-        <v>29</v>
+      <c r="E112"/>
+      <c r="F112" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113"/>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113"/>
       <c r="D113"/>
-      <c r="E113" t="n">
-        <v>58</v>
+      <c r="E113"/>
+      <c r="F113" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
+++ b/user-data/uganda-secondary-sit-write-gov/uganda-secondary-sit-write-gov.xlsx
@@ -730,7 +730,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 23</t>
+    <t xml:space="preserve">Source: 24</t>
   </si>
   <si>
     <t xml:space="preserve"/>
